--- a/Documentation/ПНТЗ Муфтонавёртка Коммуникации.xlsx
+++ b/Documentation/ПНТЗ Муфтонавёртка Коммуникации.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akfri\OneDrive\Документы\MyProject\AKF\PNTZ.Mufta\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923A885-DC5B-44E1-A006-796DD6841056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17D19E-8750-4EFA-8BA6-0988B05B0DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Параметры" sheetId="1" r:id="rId1"/>
+    <sheet name="Рецепт" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="165">
   <si>
     <t>Real</t>
   </si>
@@ -424,6 +424,102 @@
   </si>
   <si>
     <t>Метры</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_ALLG"."HEAD_OPEN_PULSES"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_ALLG"."TURNS_BREAK"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_ALLG"."PLC_PROG_NR"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_ALLG"."LOG_NO"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_ALLG"."Tq_UNIT"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_ALLG"."Thread_type"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_ALLG"."PIPE_TYPE"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_Muffe"."Box_Moni_Time"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_Muffe"."Box_Len_Max"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_Muffe"."Box_Len_Min"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_MVS"."Pre_Moni_Time"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_MVS"."Pre_Len_Min"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_MVS"."Pre_Len_Max"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Moni_Time"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Tq_Ref"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Makeup_Mode"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_TqSpeed_Red_1"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_TqSpeed_Red_2"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Tq_Dump"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Tq_Max"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Tq_Min"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Len_Speed_1"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Len_Speed_2"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Len_Dump"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."Mu_Len_Max"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."Mu_Len_Min"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_JVal_Speed_1"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_JVAL_Speed_2"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_JVAL_Dump"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_JVal_Min"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_JVal_Max"</t>
+  </si>
+  <si>
+    <t>ns=3;s="REZ_TPC_DOWN"."REZ_CAM"."MU_Tq_Save"</t>
   </si>
 </sst>
 </file>
@@ -826,15 +922,15 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="6" bestFit="1" customWidth="1"/>
@@ -886,7 +982,9 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
@@ -907,7 +1005,9 @@
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
@@ -928,7 +1028,9 @@
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
@@ -949,7 +1051,9 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
@@ -968,7 +1072,9 @@
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -989,7 +1095,9 @@
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1010,7 +1118,9 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1139,9 @@
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1050,7 +1162,9 @@
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1187,9 @@
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1212,9 @@
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1235,9 @@
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1260,9 @@
       <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" s="7" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1285,9 @@
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1308,9 @@
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="D17" s="7" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1333,9 @@
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1356,9 @@
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="D19" s="7" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1381,9 @@
       <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="D20" s="7" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1406,9 @@
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="D21" s="7" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1431,9 @@
       <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="D22" s="7" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1456,9 @@
       <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="D23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1481,9 @@
       <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="D24" s="7" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1506,9 @@
       <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="D25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1531,9 @@
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="D26" s="7" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1556,9 @@
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="D27" s="7" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1581,9 @@
       <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="D28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1606,9 @@
       <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="D29" s="7" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1631,9 @@
       <c r="B30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="D30" s="7" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1656,9 @@
       <c r="B31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="D31" s="7" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1681,9 @@
       <c r="B32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="D32" s="7" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1706,9 @@
       <c r="B33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="D33" s="7" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1731,9 @@
       <c r="B34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="D34" s="7" t="s">
         <v>0</v>
       </c>

--- a/Documentation/ПНТЗ Муфтонавёртка Коммуникации.xlsx
+++ b/Documentation/ПНТЗ Муфтонавёртка Коммуникации.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akfri\OneDrive\Документы\MyProject\AKF\PNTZ.Mufta\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17D19E-8750-4EFA-8BA6-0988B05B0DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89730EB-E46F-4EF6-9CAA-9EEFA6770F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,8 +922,8 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/ПНТЗ Муфтонавёртка Коммуникации.xlsx
+++ b/Documentation/ПНТЗ Муфтонавёртка Коммуникации.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akfri\OneDrive\Документы\MyProject\AKF\PNTZ.Mufta\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89730EB-E46F-4EF6-9CAA-9EEFA6770F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE7D0E-89FE-429F-9B22-487632D58F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рецепт" sheetId="1" r:id="rId1"/>
@@ -922,8 +922,8 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1021,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>72</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>72</v>
       </c>

--- a/Documentation/ПНТЗ Муфтонавёртка Коммуникации.xlsx
+++ b/Documentation/ПНТЗ Муфтонавёртка Коммуникации.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akfri\OneDrive\Документы\MyProject\AKF\PNTZ.Mufta\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE7D0E-89FE-429F-9B22-487632D58F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C1D71-9420-49F5-B700-80BA2983B8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,8 +922,8 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
